--- a/SuppXLS/Demands/Dem_Alloc+Series.xlsx
+++ b/SuppXLS/Demands/Dem_Alloc+Series.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\Demands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{010CD82F-2407-47D1-9CD0-B6D6C41F0B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8042E59B-644A-48B3-8F22-3157720B4541}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2342B5A-0F6A-4889-BCD2-5A84D8965734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Series" sheetId="2" r:id="rId1"/>
@@ -46,6 +46,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Sensitivity series.</t>
         </r>
@@ -68,6 +69,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Assignment of drivers and adjustment series to be applied for each regions' demands.</t>
         </r>
@@ -78,12 +80,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t>Ser_0.5</t>
   </si>
   <si>
     <t>~Series</t>
@@ -180,6 +179,7 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1015,33 +1015,33 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -1071,30 +1071,13 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1110,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1126,35 +1109,35 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -1165,13 +1148,13 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -1182,13 +1165,13 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>

--- a/SuppXLS/Demands/Dem_Alloc+Series.xlsx
+++ b/SuppXLS/Demands/Dem_Alloc+Series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\Demands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2342B5A-0F6A-4889-BCD2-5A84D8965734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFD0381-D593-44BA-948C-B2CFA1D58935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Series" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Constant</t>
   </si>
@@ -130,9 +130,6 @@
     <t>\~2050</t>
   </si>
   <si>
-    <t>ETH</t>
-  </si>
-  <si>
     <t>MANHEAT</t>
   </si>
   <si>
@@ -149,6 +146,78 @@
   </si>
   <si>
     <t>CEMENTHEAT</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>\~2023</t>
+  </si>
+  <si>
+    <t>\~2024</t>
+  </si>
+  <si>
+    <t>\~2026</t>
+  </si>
+  <si>
+    <t>\~2027</t>
+  </si>
+  <si>
+    <t>\~2028</t>
+  </si>
+  <si>
+    <t>\~2029</t>
+  </si>
+  <si>
+    <t>\~2031</t>
+  </si>
+  <si>
+    <t>\~2032</t>
+  </si>
+  <si>
+    <t>\~2033</t>
+  </si>
+  <si>
+    <t>\~2034</t>
+  </si>
+  <si>
+    <t>\~2036</t>
+  </si>
+  <si>
+    <t>\~2037</t>
+  </si>
+  <si>
+    <t>\~2038</t>
+  </si>
+  <si>
+    <t>\~2039</t>
+  </si>
+  <si>
+    <t>\~2041</t>
+  </si>
+  <si>
+    <t>\~2042</t>
+  </si>
+  <si>
+    <t>\~2043</t>
+  </si>
+  <si>
+    <t>\~2044</t>
+  </si>
+  <si>
+    <t>\~2046</t>
+  </si>
+  <si>
+    <t>\~2047</t>
+  </si>
+  <si>
+    <t>\~2048</t>
+  </si>
+  <si>
+    <t>\~2049</t>
+  </si>
+  <si>
+    <t>Ser_Growth</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1013,12 +1082,12 @@
     <col min="3" max="9" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1026,27 +1095,93 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1069,8 +1204,74 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1093,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1131,13 +1332,13 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -1148,13 +1349,13 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -1165,13 +1366,13 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>

--- a/SuppXLS/Demands/Dem_Alloc+Series.xlsx
+++ b/SuppXLS/Demands/Dem_Alloc+Series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\Demands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFD0381-D593-44BA-948C-B2CFA1D58935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775BD71-23B9-4F0E-8F30-42EC30C69DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Series" sheetId="2" r:id="rId1"/>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AE5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1187,88 +1187,88 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>1.0948224858134137</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>1.1986362754426625</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>1.3122939466662673</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>1.4367289208070582</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>1.5729631285180066</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>1.7221154024569281</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>1.8854106657754615</v>
       </c>
       <c r="K4" s="3">
-        <v>1</v>
+        <v>2.0641899918834139</v>
       </c>
       <c r="L4" s="3">
-        <v>1</v>
+        <v>2.2599216181049693</v>
       </c>
       <c r="M4" s="3">
-        <v>1</v>
+        <v>2.4742130036771548</v>
       </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>2.7088240311176954</v>
       </c>
       <c r="O4" s="3">
-        <v>1</v>
+        <v>2.9656814593793874</v>
       </c>
       <c r="P4" s="3">
-        <v>1</v>
+        <v>3.246894747488493</v>
       </c>
       <c r="Q4" s="3">
-        <v>1</v>
+        <v>3.5547733786198688</v>
       </c>
       <c r="R4" s="3">
-        <v>1</v>
+        <v>3.8918458268839515</v>
       </c>
       <c r="S4" s="3">
-        <v>1</v>
+        <v>4.2608803225916487</v>
       </c>
       <c r="T4" s="3">
-        <v>1</v>
+        <v>4.664907586533249</v>
       </c>
       <c r="U4" s="3">
-        <v>1</v>
+        <v>5.1072457199781844</v>
       </c>
       <c r="V4" s="3">
-        <v>1</v>
+        <v>5.5915274548064327</v>
       </c>
       <c r="W4" s="3">
-        <v>1</v>
+        <v>6.1217299875651294</v>
       </c>
       <c r="X4" s="3">
-        <v>1</v>
+        <v>6.7022076424645727</v>
       </c>
       <c r="Y4" s="3">
-        <v>1</v>
+        <v>7.3377276315607238</v>
       </c>
       <c r="Z4" s="3">
-        <v>1</v>
+        <v>8.0335092058070838</v>
       </c>
       <c r="AA4" s="3">
-        <v>1</v>
+        <v>8.7952665185066525</v>
       </c>
       <c r="AB4" s="3">
-        <v>1</v>
+        <v>9.6292555531829418</v>
       </c>
       <c r="AC4" s="3">
-        <v>1</v>
+        <v>10.542325501268367</v>
       </c>
       <c r="AD4" s="3">
-        <v>1</v>
+        <v>11.541975011552777</v>
       </c>
       <c r="AE4" s="3">
-        <v>1</v>
+        <v>12.636413773344517</v>
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.2">
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SuppXLS/Demands/Dem_Alloc+Series.xlsx
+++ b/SuppXLS/Demands/Dem_Alloc+Series.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\Demands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775BD71-23B9-4F0E-8F30-42EC30C69DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C775BD71-23B9-4F0E-8F30-42EC30C69DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67DFC60-9400-4B48-B4EA-449313708FD1}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Constant</t>
   </si>
@@ -133,15 +133,6 @@
     <t>MANHEAT</t>
   </si>
   <si>
-    <t>MANHEATG_MVA_INDUCED</t>
-  </si>
-  <si>
-    <t>MANELCG_INDUCED</t>
-  </si>
-  <si>
-    <t>CEMENTHEAT_INDUCED</t>
-  </si>
-  <si>
     <t>MANELC</t>
   </si>
   <si>
@@ -217,7 +208,10 @@
     <t>\~2049</t>
   </si>
   <si>
-    <t>Ser_Growth</t>
+    <t>MVA</t>
+  </si>
+  <si>
+    <t>Sens_Neutral</t>
   </si>
 </sst>
 </file>
@@ -782,6 +776,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1072,7 +1070,7 @@
   <dimension ref="B2:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:AE4"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1095,85 +1093,85 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>15</v>
@@ -1181,104 +1179,187 @@
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>1.0948224858134137</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>1.1986362754426625</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>1.3122939466662673</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1.4367289208070582</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
-        <v>1.5729631285180066</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>1.7221154024569281</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>1.8854106657754615</v>
+        <v>1</v>
       </c>
       <c r="K4" s="3">
-        <v>2.0641899918834139</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>2.2599216181049693</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
-        <v>2.4742130036771548</v>
+        <v>1</v>
       </c>
       <c r="N4" s="3">
-        <v>2.7088240311176954</v>
+        <v>1</v>
       </c>
       <c r="O4" s="3">
-        <v>2.9656814593793874</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3">
-        <v>3.246894747488493</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>3.5547733786198688</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3">
-        <v>3.8918458268839515</v>
+        <v>1</v>
       </c>
       <c r="S4" s="3">
-        <v>4.2608803225916487</v>
+        <v>1</v>
       </c>
       <c r="T4" s="3">
-        <v>4.664907586533249</v>
+        <v>1</v>
       </c>
       <c r="U4" s="3">
-        <v>5.1072457199781844</v>
+        <v>1</v>
       </c>
       <c r="V4" s="3">
-        <v>5.5915274548064327</v>
+        <v>1</v>
       </c>
       <c r="W4" s="3">
-        <v>6.1217299875651294</v>
+        <v>1</v>
       </c>
       <c r="X4" s="3">
-        <v>6.7022076424645727</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="3">
-        <v>7.3377276315607238</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="3">
-        <v>8.0335092058070838</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="3">
-        <v>8.7952665185066525</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="3">
-        <v>9.6292555531829418</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="3">
-        <v>10.542325501268367</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="3">
-        <v>11.541975011552777</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="3">
-        <v>12.636413773344517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1295,7 +1376,7 @@
   <dimension ref="B2:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1332,13 +1413,13 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -1349,13 +1430,13 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -1366,13 +1447,13 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>

--- a/SuppXLS/Demands/Dem_Alloc+Series.xlsx
+++ b/SuppXLS/Demands/Dem_Alloc+Series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C775BD71-23B9-4F0E-8F30-42EC30C69DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67DFC60-9400-4B48-B4EA-449313708FD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA6E64-D0D7-4392-B913-0927C4FDF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Series" sheetId="2" r:id="rId1"/>
@@ -776,10 +776,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1069,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1375,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SuppXLS/Demands/Dem_Alloc+Series.xlsx
+++ b/SuppXLS/Demands/Dem_Alloc+Series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{52FA6E64-D0D7-4392-B913-0927C4FDF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2F680D-1BA5-4F7A-938F-18866343EC81}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{52FA6E64-D0D7-4392-B913-0927C4FDF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A31BE3F0-95A3-4A37-8853-3845EEBDE9AB}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,10 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
-  <si>
-    <t>Constant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>~Series</t>
   </si>
@@ -211,7 +208,10 @@
     <t>MVA</t>
   </si>
   <si>
-    <t>Ser_1.0</t>
+    <t>ELAS_1</t>
+  </si>
+  <si>
+    <t>ELAS_!</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1070,7 @@
   <dimension ref="B2:AE5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1082,104 +1082,104 @@
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1270,96 +1270,36 @@
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1376,7 +1316,7 @@
   <dimension ref="B2:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1391,75 +1331,75 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">

--- a/SuppXLS/Demands/Dem_Alloc+Series.xlsx
+++ b/SuppXLS/Demands/Dem_Alloc+Series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{52FA6E64-D0D7-4392-B913-0927C4FDF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A31BE3F0-95A3-4A37-8853-3845EEBDE9AB}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{52FA6E64-D0D7-4392-B913-0927C4FDF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6857300E-A8A6-407C-94A9-3FEFCC033CB0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Series" sheetId="2" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>CEMENTHEAT</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>\~2023</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>ELAS_!</t>
+  </si>
+  <si>
+    <t>ETH</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AE5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
@@ -1093,85 +1093,85 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>14</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1353,53 +1353,53 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">

--- a/SuppXLS/Demands/Dem_Alloc+Series.xlsx
+++ b/SuppXLS/Demands/Dem_Alloc+Series.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\Demands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{52FA6E64-D0D7-4392-B913-0927C4FDF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6857300E-A8A6-407C-94A9-3FEFCC033CB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDFA2A2-AF74-425B-BCCA-6BBB2912C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Series" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>~Series</t>
   </si>
@@ -205,13 +205,10 @@
     <t>MVA</t>
   </si>
   <si>
-    <t>ELAS_1</t>
-  </si>
-  <si>
-    <t>ELAS_!</t>
-  </si>
-  <si>
     <t>ETH</t>
+  </si>
+  <si>
+    <t>SENS_1</t>
   </si>
 </sst>
 </file>
@@ -776,10 +773,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1069,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1172,7 @@
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1315,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1353,7 +1346,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1362,7 +1355,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1370,7 +1363,7 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1379,7 +1372,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1387,7 +1380,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1396,7 +1389,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
